--- a/ImageBoardv1.0/BOM_ImageBoard_v1.0.xlsx
+++ b/ImageBoardv1.0/BOM_ImageBoard_v1.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>4pin 3.2x2.5mm</t>
-  </si>
-  <si>
-    <t>Various</t>
   </si>
   <si>
     <t>Do Not Place</t>
@@ -374,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -397,26 +394,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -434,7 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -725,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ42"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
@@ -1275,15 +1256,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>103</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
@@ -1291,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>43000</v>
+        <v>43489</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -1837,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -1866,24 +1847,24 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>19</v>
@@ -1892,19 +1873,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
         <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
@@ -1918,48 +1899,48 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="14">
-        <v>3</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -1971,7 +1952,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1986,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
@@ -2006,7 +1987,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>19</v>
@@ -2015,19 +1996,19 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="F19" s="7">
         <v>2524957</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>61</v>
+      <c r="G19" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2041,24 +2022,24 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>19</v>
@@ -2067,25 +2048,25 @@
         <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="7">
         <v>2672085</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>60</v>
+      <c r="G21" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
@@ -2094,19 +2075,19 @@
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="F22" s="7">
         <v>2218854</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>60</v>
+      <c r="G22" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2135,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
@@ -2143,13 +2124,13 @@
       <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2164,19 +2145,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="F26" s="7">
         <v>2443223</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>60</v>
+      <c r="G26" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2201,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>13</v>
@@ -2226,26 +2207,26 @@
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>74</v>
+      <c r="E30" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
         <v>82</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2255,26 +2236,26 @@
       <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>74</v>
+      <c r="E31" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2282,86 +2263,86 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="10">
+        <v>87</v>
+      </c>
+      <c r="C32" s="9">
         <v>1</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>74</v>
+      <c r="E32" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>96</v>
+      <c r="I34" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2371,26 +2352,26 @@
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>56</v>
+        <v>98</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2404,20 +2385,14 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37"/>
       <c r="C37" s="8"/>
-      <c r="D37"/>
-      <c r="E37"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -2436,67 +2411,24 @@
       <c r="F38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42">
+      <c r="A39" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39">
         <v>201</v>
       </c>
-      <c r="C42">
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
